--- a/tests/testthat/input_files/test3.xlsx
+++ b/tests/testthat/input_files/test3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gage1\Documents\Work\RTQ_analysis\tests\testthat\input files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gage1\Documents\Work\quicR\tests\testthat\input_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FD454C-814A-4919-9B50-551AE160BD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6B5F21-148D-4180-952C-D168393C6754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Microplate Cycle 1 (0 h)" sheetId="2" r:id="rId1"/>
@@ -674,7 +674,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -730,6 +730,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1012,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1867,28 +1870,28 @@
         <v>1000</v>
       </c>
       <c r="D38" s="11">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="E38" s="11">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="F38" s="11">
         <v>1000</v>
       </c>
       <c r="G38" s="11">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="H38" s="11">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="I38" s="11">
         <v>1000</v>
       </c>
       <c r="J38" s="11">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="K38" s="11">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="L38" s="11">
         <v>1000</v>
@@ -1905,34 +1908,34 @@
       <c r="B39" s="4">
         <v>1000</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="21">
         <v>1000</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="21">
+        <v>10000</v>
+      </c>
+      <c r="E39" s="21">
+        <v>100000</v>
+      </c>
+      <c r="F39" s="21">
         <v>1000</v>
       </c>
-      <c r="E39" s="13">
+      <c r="G39" s="21">
         <v>10000</v>
       </c>
-      <c r="F39" s="13">
+      <c r="H39" s="21">
+        <v>100000</v>
+      </c>
+      <c r="I39" s="21">
         <v>1000</v>
       </c>
-      <c r="G39" s="13">
-        <v>1000</v>
-      </c>
-      <c r="H39" s="13">
+      <c r="J39" s="21">
         <v>10000</v>
       </c>
-      <c r="I39" s="13">
-        <v>1000</v>
-      </c>
-      <c r="J39" s="13">
-        <v>1000</v>
-      </c>
-      <c r="K39" s="13">
-        <v>10000</v>
-      </c>
-      <c r="L39" s="13">
+      <c r="K39" s="21">
+        <v>100000</v>
+      </c>
+      <c r="L39" s="21">
         <v>1000</v>
       </c>
       <c r="M39" s="14">
@@ -1946,34 +1949,34 @@
       <c r="B40" s="4">
         <v>1000</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="21">
         <v>1000</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="21">
+        <v>10000</v>
+      </c>
+      <c r="E40" s="21">
+        <v>100000</v>
+      </c>
+      <c r="F40" s="21">
         <v>1000</v>
       </c>
-      <c r="E40" s="13">
+      <c r="G40" s="21">
         <v>10000</v>
       </c>
-      <c r="F40" s="13">
+      <c r="H40" s="21">
+        <v>100000</v>
+      </c>
+      <c r="I40" s="21">
         <v>1000</v>
       </c>
-      <c r="G40" s="13">
-        <v>1000</v>
-      </c>
-      <c r="H40" s="13">
+      <c r="J40" s="21">
         <v>10000</v>
       </c>
-      <c r="I40" s="13">
-        <v>1000</v>
-      </c>
-      <c r="J40" s="13">
-        <v>1000</v>
-      </c>
-      <c r="K40" s="13">
-        <v>10000</v>
-      </c>
-      <c r="L40" s="13">
+      <c r="K40" s="21">
+        <v>100000</v>
+      </c>
+      <c r="L40" s="21">
         <v>1000</v>
       </c>
       <c r="M40" s="14">
@@ -1987,34 +1990,34 @@
       <c r="B41" s="4">
         <v>1000</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="21">
         <v>1000</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="21">
+        <v>10000</v>
+      </c>
+      <c r="E41" s="21">
+        <v>100000</v>
+      </c>
+      <c r="F41" s="21">
         <v>1000</v>
       </c>
-      <c r="E41" s="13">
+      <c r="G41" s="21">
         <v>10000</v>
       </c>
-      <c r="F41" s="13">
+      <c r="H41" s="21">
+        <v>100000</v>
+      </c>
+      <c r="I41" s="21">
         <v>1000</v>
       </c>
-      <c r="G41" s="13">
-        <v>1000</v>
-      </c>
-      <c r="H41" s="13">
+      <c r="J41" s="21">
         <v>10000</v>
       </c>
-      <c r="I41" s="13">
-        <v>1000</v>
-      </c>
-      <c r="J41" s="13">
-        <v>1000</v>
-      </c>
-      <c r="K41" s="13">
-        <v>10000</v>
-      </c>
-      <c r="L41" s="13">
+      <c r="K41" s="21">
+        <v>100000</v>
+      </c>
+      <c r="L41" s="21">
         <v>1000</v>
       </c>
       <c r="M41" s="14">
@@ -2028,34 +2031,34 @@
       <c r="B42" s="4">
         <v>1000</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="21">
         <v>1000</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="21">
+        <v>10000</v>
+      </c>
+      <c r="E42" s="21">
+        <v>100000</v>
+      </c>
+      <c r="F42" s="21">
         <v>1000</v>
       </c>
-      <c r="E42" s="13">
+      <c r="G42" s="21">
         <v>10000</v>
       </c>
-      <c r="F42" s="13">
+      <c r="H42" s="21">
+        <v>100000</v>
+      </c>
+      <c r="I42" s="21">
         <v>1000</v>
       </c>
-      <c r="G42" s="13">
-        <v>1000</v>
-      </c>
-      <c r="H42" s="13">
+      <c r="J42" s="21">
         <v>10000</v>
       </c>
-      <c r="I42" s="13">
-        <v>1000</v>
-      </c>
-      <c r="J42" s="13">
-        <v>1000</v>
-      </c>
-      <c r="K42" s="13">
-        <v>10000</v>
-      </c>
-      <c r="L42" s="13">
+      <c r="K42" s="21">
+        <v>100000</v>
+      </c>
+      <c r="L42" s="21">
         <v>1000</v>
       </c>
       <c r="M42" s="14">
@@ -2069,34 +2072,34 @@
       <c r="B43" s="4">
         <v>1000</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="21">
         <v>1000</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="21">
+        <v>10000</v>
+      </c>
+      <c r="E43" s="21">
+        <v>100000</v>
+      </c>
+      <c r="F43" s="21">
         <v>1000</v>
       </c>
-      <c r="E43" s="13">
+      <c r="G43" s="21">
         <v>10000</v>
       </c>
-      <c r="F43" s="13">
+      <c r="H43" s="21">
+        <v>100000</v>
+      </c>
+      <c r="I43" s="21">
         <v>1000</v>
       </c>
-      <c r="G43" s="13">
-        <v>1000</v>
-      </c>
-      <c r="H43" s="13">
+      <c r="J43" s="21">
         <v>10000</v>
       </c>
-      <c r="I43" s="13">
-        <v>1000</v>
-      </c>
-      <c r="J43" s="13">
-        <v>1000</v>
-      </c>
-      <c r="K43" s="13">
-        <v>10000</v>
-      </c>
-      <c r="L43" s="13">
+      <c r="K43" s="21">
+        <v>100000</v>
+      </c>
+      <c r="L43" s="21">
         <v>1000</v>
       </c>
       <c r="M43" s="14">
@@ -2110,34 +2113,34 @@
       <c r="B44" s="4">
         <v>1000</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="21">
         <v>1000</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="21">
+        <v>10000</v>
+      </c>
+      <c r="E44" s="21">
+        <v>100000</v>
+      </c>
+      <c r="F44" s="21">
         <v>1000</v>
       </c>
-      <c r="E44" s="13">
+      <c r="G44" s="21">
         <v>10000</v>
       </c>
-      <c r="F44" s="13">
+      <c r="H44" s="21">
+        <v>100000</v>
+      </c>
+      <c r="I44" s="21">
         <v>1000</v>
       </c>
-      <c r="G44" s="13">
-        <v>1000</v>
-      </c>
-      <c r="H44" s="13">
+      <c r="J44" s="21">
         <v>10000</v>
       </c>
-      <c r="I44" s="13">
-        <v>1000</v>
-      </c>
-      <c r="J44" s="13">
-        <v>1000</v>
-      </c>
-      <c r="K44" s="13">
-        <v>10000</v>
-      </c>
-      <c r="L44" s="13">
+      <c r="K44" s="21">
+        <v>100000</v>
+      </c>
+      <c r="L44" s="21">
         <v>1000</v>
       </c>
       <c r="M44" s="14">
@@ -2155,28 +2158,28 @@
         <v>1000</v>
       </c>
       <c r="D45" s="16">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="E45" s="16">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="F45" s="16">
         <v>1000</v>
       </c>
       <c r="G45" s="16">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="H45" s="16">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="I45" s="16">
         <v>1000</v>
       </c>
       <c r="J45" s="16">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="K45" s="16">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="L45" s="16">
         <v>1000</v>
